--- a/django_backend/core/resources/screen/MenuMnt.xlsx
+++ b/django_backend/core/resources/screen/MenuMnt.xlsx
@@ -1057,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>20250214135416</v>
+        <v>20250806162400</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
       <c r="A19" s="6" t="n"/>
       <c r="C19" s="11" t="inlineStr">
         <is>
-          <t>menuRcs</t>
+          <t>sch_rc</t>
         </is>
       </c>
       <c r="D19" s="11" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>core.models.Menu</t>
+          <t>core.db.model.DummyModel</t>
         </is>
       </c>
       <c r="F19" s="11" t="n"/>
@@ -1444,254 +1444,222 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>End of Table</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
-      <c r="H20" s="3" t="n"/>
-      <c r="I20" s="3" t="n"/>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>menu_rcs</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>core.models.Menu</t>
+        </is>
+      </c>
+      <c r="F20" s="11" t="n"/>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="11" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>End of Table</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
-      <c r="D22" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">fields, table, </t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Additional Properties optional keys: </t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
-      <c r="C23" s="9" t="n"/>
       <c r="D23" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">fields, table, </t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Additional Properties optional keys: </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
           <t>chart, iconBar</t>
         </is>
       </c>
-      <c r="G23" s="9" t="inlineStr">
+      <c r="G24" s="9" t="inlineStr">
         <is>
           <t>( yes/ blank )</t>
         </is>
       </c>
-      <c r="H23" s="9" t="inlineStr">
+      <c r="H24" s="9" t="inlineStr">
         <is>
           <t>( yes/ blank )</t>
         </is>
       </c>
-      <c r="I23" s="9" t="inlineStr">
+      <c r="I24" s="9" t="inlineStr">
         <is>
           <t>( yes/ blank )</t>
         </is>
       </c>
-      <c r="J23" s="9" t="inlineStr">
+      <c r="J24" s="9" t="inlineStr">
         <is>
           <t>( yes/ blank )</t>
         </is>
       </c>
-      <c r="K23" s="9" t="inlineStr">
+      <c r="K24" s="9" t="inlineStr">
         <is>
           <t>( single/ multiple/ blank )</t>
         </is>
       </c>
-      <c r="L23" s="9" t="n"/>
-      <c r="M23" s="9" t="inlineStr">
+      <c r="L24" s="9" t="n"/>
+      <c r="M24" s="9" t="inlineStr">
         <is>
           <t>( client/ server/ blank )</t>
         </is>
       </c>
-      <c r="N23" s="9" t="n"/>
-      <c r="S23" s="9" t="inlineStr">
+      <c r="N24" s="9" t="n"/>
+      <c r="S24" s="9" t="inlineStr">
         <is>
           <t>sortNewRows / tableHeight / …</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>fieldGroupTable</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Field Groups</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>Group Type</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>Caption</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>Recordset</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>Deletable</t>
         </is>
       </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="H25" s="3" t="inlineStr">
         <is>
           <t>Editable</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="I25" s="3" t="inlineStr">
         <is>
           <t>Insertable</t>
         </is>
       </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>Highlight Row</t>
         </is>
       </c>
-      <c r="K24" s="3" t="inlineStr">
+      <c r="K25" s="3" t="inlineStr">
         <is>
           <t>Selection Mode</t>
         </is>
       </c>
-      <c r="L24" s="3" t="inlineStr">
+      <c r="L25" s="3" t="inlineStr">
         <is>
           <t>Cols</t>
         </is>
       </c>
-      <c r="M24" s="3" t="inlineStr">
+      <c r="M25" s="3" t="inlineStr">
         <is>
           <t>Page Type</t>
         </is>
       </c>
-      <c r="N24" s="3" t="inlineStr">
+      <c r="N25" s="3" t="inlineStr">
         <is>
           <t>Page Size</t>
         </is>
       </c>
-      <c r="O24" s="3" t="inlineStr">
+      <c r="O25" s="3" t="inlineStr">
         <is>
           <t>Outer Layout Parameters</t>
         </is>
       </c>
-      <c r="P24" s="3" t="inlineStr">
+      <c r="P25" s="3" t="inlineStr">
         <is>
           <t>Inner Layout Type</t>
         </is>
       </c>
-      <c r="Q24" s="3" t="inlineStr">
+      <c r="Q25" s="3" t="inlineStr">
         <is>
           <t>Inner Layout Parameters</t>
         </is>
       </c>
-      <c r="R24" s="3" t="inlineStr">
+      <c r="R25" s="3" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="S24" s="3" t="inlineStr">
+      <c r="S25" s="3" t="inlineStr">
         <is>
           <t>Additional Properties</t>
         </is>
       </c>
-      <c r="T24" s="3" t="inlineStr">
+      <c r="T25" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="11" t="inlineStr">
-        <is>
-          <t>menuFg</t>
-        </is>
-      </c>
-      <c r="D25" s="11" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E25" s="11" t="inlineStr">
-        <is>
-          <t>Menu List:</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>menuRcs</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I25" s="11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="J25" s="11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="K25" s="11" t="n"/>
-      <c r="L25" s="11" t="n"/>
-      <c r="M25" s="11" t="inlineStr">
-        <is>
-          <t>client</t>
-        </is>
-      </c>
-      <c r="N25" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="O25" s="11" t="n"/>
-      <c r="P25" s="11" t="n"/>
-      <c r="Q25" s="11" t="n"/>
-      <c r="R25" s="11" t="n"/>
-      <c r="S25" s="11" t="n"/>
-      <c r="T25" s="11" t="n"/>
-    </row>
     <row r="26">
+      <c r="B26" s="1" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
-          <t>toolbar</t>
+          <t>schFg</t>
         </is>
       </c>
       <c r="D26" s="11" t="inlineStr">
         <is>
-          <t>iconBar</t>
+          <t>search</t>
         </is>
       </c>
       <c r="E26" s="11" t="n"/>
-      <c r="F26" s="11" t="n"/>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>sch_rc</t>
+        </is>
+      </c>
       <c r="G26" s="11" t="n"/>
       <c r="H26" s="11" t="inlineStr">
         <is>
@@ -1701,7 +1669,9 @@
       <c r="I26" s="11" t="n"/>
       <c r="J26" s="11" t="n"/>
       <c r="K26" s="11" t="n"/>
-      <c r="L26" s="11" t="n"/>
+      <c r="L26" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="M26" s="11" t="n"/>
       <c r="N26" s="11" t="n"/>
       <c r="O26" s="11" t="n"/>
@@ -1712,224 +1682,255 @@
       <c r="T26" s="11" t="n"/>
     </row>
     <row r="27">
-      <c r="C27" s="5" t="inlineStr">
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="11" t="inlineStr">
+        <is>
+          <t>menuFg</t>
+        </is>
+      </c>
+      <c r="D27" s="11" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E27" s="11" t="inlineStr">
+        <is>
+          <t>Menu List:</t>
+        </is>
+      </c>
+      <c r="F27" s="11" t="inlineStr">
+        <is>
+          <t>menu_rcs</t>
+        </is>
+      </c>
+      <c r="G27" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I27" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J27" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K27" s="11" t="n"/>
+      <c r="L27" s="11" t="n"/>
+      <c r="M27" s="11" t="inlineStr">
+        <is>
+          <t>server</t>
+        </is>
+      </c>
+      <c r="N27" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O27" s="11" t="n"/>
+      <c r="P27" s="11" t="n"/>
+      <c r="Q27" s="11" t="n"/>
+      <c r="R27" s="11" t="n"/>
+      <c r="S27" s="11" t="n"/>
+      <c r="T27" s="11" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="11" t="inlineStr">
+        <is>
+          <t>toolbar</t>
+        </is>
+      </c>
+      <c r="D28" s="11" t="inlineStr">
+        <is>
+          <t>iconBar</t>
+        </is>
+      </c>
+      <c r="E28" s="11" t="n"/>
+      <c r="F28" s="11" t="n"/>
+      <c r="G28" s="11" t="n"/>
+      <c r="H28" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I28" s="11" t="n"/>
+      <c r="J28" s="11" t="n"/>
+      <c r="K28" s="11" t="n"/>
+      <c r="L28" s="11" t="n"/>
+      <c r="M28" s="11" t="n"/>
+      <c r="N28" s="11" t="n"/>
+      <c r="O28" s="11" t="n"/>
+      <c r="P28" s="11" t="n"/>
+      <c r="Q28" s="11" t="n"/>
+      <c r="R28" s="11" t="n"/>
+      <c r="S28" s="11" t="n"/>
+      <c r="T28" s="11" t="n"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
-      <c r="H27" s="3" t="n"/>
-      <c r="I27" s="3" t="n"/>
-      <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="n"/>
-      <c r="L27" s="3" t="n"/>
-      <c r="M27" s="3" t="n"/>
-      <c r="N27" s="3" t="n"/>
-      <c r="O27" s="3" t="n"/>
-      <c r="P27" s="3" t="n"/>
-      <c r="Q27" s="3" t="n"/>
-      <c r="R27" s="3" t="n"/>
-      <c r="S27" s="3" t="n"/>
-      <c r="T27" s="3" t="n"/>
-    </row>
-    <row r="28"/>
-    <row r="29">
-      <c r="K29" s="9" t="n"/>
-      <c r="M29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="9" t="n"/>
-      <c r="D30" s="9" t="inlineStr">
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
+      <c r="M29" s="3" t="n"/>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="n"/>
+      <c r="P29" s="3" t="n"/>
+      <c r="Q29" s="3" t="n"/>
+      <c r="R29" s="3" t="n"/>
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="n"/>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="K31" s="9" t="n"/>
+      <c r="M31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="9" t="n"/>
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t>Python Name</t>
         </is>
       </c>
-      <c r="E30" s="9" t="n"/>
-      <c r="F30" s="9" t="n"/>
-      <c r="G30" s="9" t="n"/>
-      <c r="H30" s="10" t="inlineStr">
+      <c r="E32" s="9" t="n"/>
+      <c r="F32" s="9" t="n"/>
+      <c r="G32" s="9" t="n"/>
+      <c r="H32" s="10" t="inlineStr">
         <is>
           <t>( blank / no  )</t>
         </is>
       </c>
-      <c r="I30" s="9" t="inlineStr">
+      <c r="I32" s="9" t="inlineStr">
         <is>
           <t>( yes/ no/ blank )</t>
         </is>
       </c>
-      <c r="J30" s="9" t="inlineStr">
+      <c r="J32" s="9" t="inlineStr">
         <is>
           <t>( yes/ no/ blank )</t>
         </is>
       </c>
-      <c r="K30" s="10" t="inlineStr">
+      <c r="K32" s="10" t="inlineStr">
         <is>
           <t>e.g. textbox</t>
         </is>
       </c>
-      <c r="M30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="M32" s="15" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>fieldTable</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>Fields</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>Field Name</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>Caption</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>Tooltip</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>Hidden</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="H33" s="3" t="inlineStr">
         <is>
           <t>Editable</t>
         </is>
       </c>
-      <c r="I31" s="3" t="inlineStr">
+      <c r="I33" s="3" t="inlineStr">
         <is>
           <t>Unique</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
-      <c r="K31" s="3" t="inlineStr">
+      <c r="K33" s="3" t="inlineStr">
         <is>
           <t>Widget</t>
         </is>
       </c>
-      <c r="L31" s="3" t="inlineStr">
+      <c r="L33" s="3" t="inlineStr">
         <is>
           <t>Widget Parameters</t>
         </is>
       </c>
-      <c r="M31" s="3" t="inlineStr">
+      <c r="M33" s="3" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="N31" s="3" t="inlineStr">
+      <c r="N33" s="3" t="inlineStr">
         <is>
           <t>Event Handler</t>
         </is>
       </c>
-      <c r="O31" s="3" t="inlineStr">
+      <c r="O33" s="3" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="P31" s="3" t="inlineStr">
+      <c r="P33" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="11" t="inlineStr">
-        <is>
-          <t>menuFg</t>
-        </is>
-      </c>
-      <c r="D32" s="11" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="E32" s="11" t="inlineStr">
-        <is>
-          <t>Parent Menu (Caption)</t>
-        </is>
-      </c>
-      <c r="F32" s="11" t="n"/>
-      <c r="G32" s="11" t="n"/>
-      <c r="H32" s="11" t="n"/>
-      <c r="I32" s="11" t="n"/>
-      <c r="J32" s="11" t="n"/>
-      <c r="K32" s="11" t="inlineStr">
-        <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L32" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl:getParentMenu
-values: {"value": "parent_menu_id", "display": "parent_menu"}</t>
-        </is>
-      </c>
-      <c r="M32" s="11" t="inlineStr">
-        <is>
-          <t>parent_menu_id</t>
-        </is>
-      </c>
-      <c r="N32" s="11" t="n"/>
-      <c r="O32" s="11" t="n"/>
-      <c r="P32" s="11" t="n"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="11" t="n"/>
-      <c r="D33" s="11" t="n"/>
-      <c r="E33" s="11" t="inlineStr">
-        <is>
-          <t>Menu Name</t>
-        </is>
-      </c>
-      <c r="F33" s="11" t="n"/>
-      <c r="G33" s="11" t="n"/>
-      <c r="H33" s="11" t="n"/>
-      <c r="I33" s="11" t="n"/>
-      <c r="J33" s="11" t="n"/>
-      <c r="K33" s="11" t="inlineStr">
-        <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L33" s="11" t="n"/>
-      <c r="M33" s="11" t="inlineStr">
-        <is>
-          <t>menu_nm</t>
-        </is>
-      </c>
-      <c r="N33" s="11" t="n"/>
-      <c r="O33" s="11" t="n"/>
-      <c r="P33" s="11" t="n"/>
-    </row>
     <row r="34">
-      <c r="C34" s="11" t="n"/>
-      <c r="D34" s="11" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="11" t="inlineStr">
+        <is>
+          <t>schFg</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>schKey</t>
+        </is>
+      </c>
       <c r="E34" s="11" t="inlineStr">
         <is>
-          <t>Menu Caption</t>
+          <t>Search</t>
         </is>
       </c>
       <c r="F34" s="11" t="n"/>
@@ -1943,21 +1944,26 @@
         </is>
       </c>
       <c r="L34" s="11" t="n"/>
-      <c r="M34" s="11" t="inlineStr">
-        <is>
-          <t>menu_caption</t>
-        </is>
-      </c>
-      <c r="N34" s="11" t="n"/>
+      <c r="M34" s="11" t="n"/>
+      <c r="N34" s="11" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
       <c r="O34" s="11" t="n"/>
       <c r="P34" s="11" t="n"/>
     </row>
     <row r="35">
+      <c r="B35" s="1" t="n"/>
       <c r="C35" s="11" t="n"/>
-      <c r="D35" s="11" t="n"/>
+      <c r="D35" s="11" t="inlineStr">
+        <is>
+          <t>schChildrenMenu</t>
+        </is>
+      </c>
       <c r="E35" s="11" t="inlineStr">
         <is>
-          <t>Screen Name</t>
+          <t>Is Children Menu</t>
         </is>
       </c>
       <c r="F35" s="11" t="n"/>
@@ -1967,25 +1973,30 @@
       <c r="J35" s="11" t="n"/>
       <c r="K35" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>CheckBox</t>
         </is>
       </c>
       <c r="L35" s="11" t="n"/>
-      <c r="M35" s="11" t="inlineStr">
-        <is>
-          <t>screen_nm</t>
-        </is>
-      </c>
+      <c r="M35" s="11" t="n"/>
       <c r="N35" s="11" t="n"/>
       <c r="O35" s="11" t="n"/>
       <c r="P35" s="11" t="n"/>
     </row>
     <row r="36">
-      <c r="C36" s="11" t="n"/>
-      <c r="D36" s="11" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="11" t="inlineStr">
+        <is>
+          <t>menuFg</t>
+        </is>
+      </c>
+      <c r="D36" s="11" t="inlineStr">
+        <is>
+          <t>menu</t>
+        </is>
+      </c>
       <c r="E36" s="11" t="inlineStr">
         <is>
-          <t>Order No</t>
+          <t>Parent Menu (Caption)</t>
         </is>
       </c>
       <c r="F36" s="11" t="n"/>
@@ -1995,13 +2006,18 @@
       <c r="J36" s="11" t="n"/>
       <c r="K36" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L36" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L36" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl:getParentMenu
+values: {"value": "parent_menu_id", "display": "parent_menu"}</t>
+        </is>
+      </c>
       <c r="M36" s="11" t="inlineStr">
         <is>
-          <t>order_no</t>
+          <t>parent_menu_id</t>
         </is>
       </c>
       <c r="N36" s="11" t="n"/>
@@ -2009,11 +2025,12 @@
       <c r="P36" s="11" t="n"/>
     </row>
     <row r="37">
+      <c r="B37" s="1" t="n"/>
       <c r="C37" s="11" t="n"/>
       <c r="D37" s="11" t="n"/>
       <c r="E37" s="11" t="inlineStr">
         <is>
-          <t>Submenus Display Location</t>
+          <t>Menu Name</t>
         </is>
       </c>
       <c r="F37" s="11" t="n"/>
@@ -2029,7 +2046,7 @@
       <c r="L37" s="11" t="n"/>
       <c r="M37" s="11" t="inlineStr">
         <is>
-          <t>sub_menu_lct</t>
+          <t>menu_nm</t>
         </is>
       </c>
       <c r="N37" s="11" t="n"/>
@@ -2037,11 +2054,12 @@
       <c r="P37" s="11" t="n"/>
     </row>
     <row r="38">
+      <c r="B38" s="1" t="n"/>
       <c r="C38" s="11" t="n"/>
       <c r="D38" s="11" t="n"/>
       <c r="E38" s="11" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Menu Caption</t>
         </is>
       </c>
       <c r="F38" s="11" t="n"/>
@@ -2057,7 +2075,7 @@
       <c r="L38" s="11" t="n"/>
       <c r="M38" s="11" t="inlineStr">
         <is>
-          <t>dsc</t>
+          <t>menu_caption</t>
         </is>
       </c>
       <c r="N38" s="11" t="n"/>
@@ -2065,15 +2083,12 @@
       <c r="P38" s="11" t="n"/>
     </row>
     <row r="39">
-      <c r="C39" s="11" t="inlineStr">
-        <is>
-          <t>toolbar</t>
-        </is>
-      </c>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="11" t="n"/>
       <c r="D39" s="11" t="n"/>
       <c r="E39" s="11" t="inlineStr">
         <is>
-          <t>Save</t>
+          <t>Screen Name</t>
         </is>
       </c>
       <c r="F39" s="11" t="n"/>
@@ -2083,238 +2098,358 @@
       <c r="J39" s="11" t="n"/>
       <c r="K39" s="11" t="inlineStr">
         <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L39" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/save_button.gif</t>
-        </is>
-      </c>
-      <c r="M39" s="11" t="n"/>
-      <c r="N39" s="11" t="inlineStr">
-        <is>
-          <t>save(menuFg)</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L39" s="11" t="n"/>
+      <c r="M39" s="11" t="inlineStr">
+        <is>
+          <t>screen_nm</t>
+        </is>
+      </c>
+      <c r="N39" s="11" t="n"/>
       <c r="O39" s="11" t="n"/>
       <c r="P39" s="11" t="n"/>
     </row>
     <row r="40">
-      <c r="C40" s="5" t="inlineStr">
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="11" t="n"/>
+      <c r="D40" s="11" t="n"/>
+      <c r="E40" s="11" t="inlineStr">
+        <is>
+          <t>Order No</t>
+        </is>
+      </c>
+      <c r="F40" s="11" t="n"/>
+      <c r="G40" s="11" t="n"/>
+      <c r="H40" s="11" t="n"/>
+      <c r="I40" s="11" t="n"/>
+      <c r="J40" s="11" t="n"/>
+      <c r="K40" s="11" t="inlineStr">
+        <is>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L40" s="11" t="n"/>
+      <c r="M40" s="11" t="inlineStr">
+        <is>
+          <t>order_no</t>
+        </is>
+      </c>
+      <c r="N40" s="11" t="n"/>
+      <c r="O40" s="11" t="n"/>
+      <c r="P40" s="11" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="11" t="n"/>
+      <c r="D41" s="11" t="n"/>
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>Submenus Display Location</t>
+        </is>
+      </c>
+      <c r="F41" s="11" t="n"/>
+      <c r="G41" s="11" t="n"/>
+      <c r="H41" s="11" t="n"/>
+      <c r="I41" s="11" t="n"/>
+      <c r="J41" s="11" t="n"/>
+      <c r="K41" s="11" t="inlineStr">
+        <is>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L41" s="11" t="n"/>
+      <c r="M41" s="11" t="inlineStr">
+        <is>
+          <t>sub_menu_lct</t>
+        </is>
+      </c>
+      <c r="N41" s="11" t="n"/>
+      <c r="O41" s="11" t="n"/>
+      <c r="P41" s="11" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="11" t="n"/>
+      <c r="D42" s="11" t="n"/>
+      <c r="E42" s="11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F42" s="11" t="n"/>
+      <c r="G42" s="11" t="n"/>
+      <c r="H42" s="11" t="n"/>
+      <c r="I42" s="11" t="n"/>
+      <c r="J42" s="11" t="n"/>
+      <c r="K42" s="11" t="inlineStr">
+        <is>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L42" s="11" t="n"/>
+      <c r="M42" s="11" t="inlineStr">
+        <is>
+          <t>dsc</t>
+        </is>
+      </c>
+      <c r="N42" s="11" t="n"/>
+      <c r="O42" s="11" t="n"/>
+      <c r="P42" s="11" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="11" t="inlineStr">
+        <is>
+          <t>toolbar</t>
+        </is>
+      </c>
+      <c r="D43" s="11" t="n"/>
+      <c r="E43" s="11" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
+      <c r="F43" s="11" t="n"/>
+      <c r="G43" s="11" t="n"/>
+      <c r="H43" s="11" t="n"/>
+      <c r="I43" s="11" t="n"/>
+      <c r="J43" s="11" t="n"/>
+      <c r="K43" s="11" t="inlineStr">
+        <is>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L43" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/save_button.gif</t>
+        </is>
+      </c>
+      <c r="M43" s="11" t="n"/>
+      <c r="N43" s="11" t="inlineStr">
+        <is>
+          <t>save(menuFg)</t>
+        </is>
+      </c>
+      <c r="O43" s="11" t="n"/>
+      <c r="P43" s="11" t="n"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
-      <c r="G40" s="3" t="n"/>
-      <c r="H40" s="3" t="n"/>
-      <c r="I40" s="3" t="n"/>
-      <c r="J40" s="3" t="n"/>
-      <c r="K40" s="3" t="n"/>
-      <c r="L40" s="3" t="n"/>
-      <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="n"/>
-      <c r="O40" s="3" t="n"/>
-      <c r="P40" s="3" t="n"/>
-    </row>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44">
-      <c r="A44" s="7" t="inlineStr">
+      <c r="D44" s="3" t="n"/>
+      <c r="E44" s="3" t="n"/>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
+      <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="n"/>
+      <c r="L44" s="3" t="n"/>
+      <c r="M44" s="3" t="n"/>
+      <c r="N44" s="3" t="n"/>
+      <c r="O44" s="3" t="n"/>
+      <c r="P44" s="3" t="n"/>
+    </row>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" s="7" t="inlineStr">
         <is>
           <t>subScreenTable</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>Sub Screen</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Sub Screen Name</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>Field Groups</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="C45" s="11" t="n"/>
-      <c r="D45" s="11" t="n"/>
-      <c r="E45" s="11" t="n"/>
-    </row>
-    <row r="46">
-      <c r="C46" s="5" t="inlineStr">
+    <row r="49">
+      <c r="C49" s="11" t="n"/>
+      <c r="D49" s="11" t="n"/>
+      <c r="E49" s="11" t="n"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n"/>
-      <c r="E46" s="3" t="n"/>
-    </row>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49">
-      <c r="B49" s="1" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="7" t="inlineStr">
+      <c r="D50" s="3" t="n"/>
+      <c r="E50" s="3" t="n"/>
+    </row>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53">
+      <c r="B53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="inlineStr">
         <is>
           <t>fieldGroupLinkTable</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B54" s="1" t="inlineStr">
         <is>
           <t>Field Group Links</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>Local Key</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>Parent Field Group Name</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>Parent Key</t>
         </is>
       </c>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="C51" s="11" t="n"/>
-      <c r="D51" s="11" t="n"/>
-      <c r="E51" s="11" t="n"/>
-      <c r="F51" s="11" t="n"/>
-      <c r="G51" s="11" t="n"/>
-    </row>
-    <row r="52">
-      <c r="C52" s="5" t="inlineStr">
+    <row r="55">
+      <c r="C55" s="11" t="n"/>
+      <c r="D55" s="11" t="n"/>
+      <c r="E55" s="11" t="n"/>
+      <c r="F55" s="11" t="n"/>
+      <c r="G55" s="11" t="n"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="3" t="n"/>
-      <c r="F52" s="3" t="n"/>
-      <c r="G52" s="3" t="n"/>
-    </row>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55">
-      <c r="B55" s="16" t="inlineStr">
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="3" t="n"/>
+      <c r="G56" s="3" t="n"/>
+    </row>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59">
+      <c r="B59" s="16" t="inlineStr">
         <is>
           <t>Table Header and Footer for Field Groups</t>
         </is>
       </c>
-      <c r="E55" s="8" t="inlineStr">
+      <c r="E59" s="8" t="inlineStr">
         <is>
           <t>add as many levels as needed</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="12" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
         <is>
           <t>headerFooterTable</t>
         </is>
       </c>
-      <c r="B56" s="13" t="n"/>
-      <c r="C56" s="17" t="inlineStr">
+      <c r="B60" s="13" t="n"/>
+      <c r="C60" s="17" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D56" s="17" t="inlineStr">
+      <c r="D60" s="17" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="E56" s="17" t="inlineStr">
+      <c r="E60" s="17" t="inlineStr">
         <is>
           <t>Header Level 1</t>
         </is>
       </c>
-      <c r="F56" s="17" t="inlineStr">
+      <c r="F60" s="17" t="inlineStr">
         <is>
           <t>Header Level 2</t>
         </is>
       </c>
-      <c r="G56" s="17" t="inlineStr">
+      <c r="G60" s="17" t="inlineStr">
         <is>
           <t>Header Level 3</t>
         </is>
       </c>
-      <c r="H56" s="17" t="inlineStr">
+      <c r="H60" s="17" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="I56" s="17" t="inlineStr">
+      <c r="I60" s="17" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="K56" s="8" t="inlineStr">
+      <c r="K60" s="8" t="inlineStr">
         <is>
           <t>optional for table field groups only</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="C57" s="11" t="n"/>
-      <c r="D57" s="11" t="n"/>
-      <c r="E57" s="11" t="n"/>
-      <c r="F57" s="11" t="n"/>
-      <c r="G57" s="11" t="n"/>
-      <c r="H57" s="11" t="n"/>
-      <c r="I57" s="11" t="n"/>
-      <c r="K57" s="8" t="inlineStr">
+    <row r="61">
+      <c r="C61" s="11" t="n"/>
+      <c r="D61" s="11" t="n"/>
+      <c r="E61" s="11" t="n"/>
+      <c r="F61" s="11" t="n"/>
+      <c r="G61" s="11" t="n"/>
+      <c r="H61" s="11" t="n"/>
+      <c r="I61" s="11" t="n"/>
+      <c r="K61" s="8" t="inlineStr">
         <is>
           <t>this is only an example, does not match the above definition</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="C58" s="5" t="inlineStr">
+    <row r="62">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
-      <c r="G58" s="3" t="n"/>
-      <c r="H58" s="3" t="n"/>
-      <c r="I58" s="3" t="n"/>
-    </row>
-    <row r="59">
-      <c r="H59" s="8" t="n"/>
+      <c r="D62" s="3" t="n"/>
+      <c r="E62" s="3" t="n"/>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+      <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
+    </row>
+    <row r="63">
+      <c r="H63" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
